--- a/xlsx/Time (magazine)_intext.xlsx
+++ b/xlsx/Time (magazine)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
   <si>
     <t>Time (magazine)</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C_(%E5%8A%A0%E6%8B%BF%E5%A4%A7)</t>
   </si>
   <si>
-    <t>時代雜誌 (加拿大)</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Time (magazine)</t>
+    <t>时代杂志 (加拿大)</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Time (magazine)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Nancy_Gibbs</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>新聞雜誌</t>
+    <t>新闻杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%85%AC%E5%8F%B8</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISSN</t>
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -155,27 +155,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>美國眾議院議長</t>
+    <t>美国众议院议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%BB%8B%E7%9F%B3</t>
   </si>
   <si>
-    <t>蔣介石</t>
+    <t>蒋介石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%9D%A2%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E4%BD%A9%E5%AD%9A</t>
@@ -203,37 +200,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AE%E7%8E%89%E7%A5%A5</t>
   </si>
   <si>
-    <t>馮玉祥</t>
+    <t>冯玉祥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%BE%8E%E9%BD%A1</t>
   </si>
   <si>
-    <t>宋美齡</t>
+    <t>宋美龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E5%9C%8B%E6%A5%A8</t>
   </si>
   <si>
-    <t>吳國楨</t>
+    <t>吴国桢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
   </si>
   <si>
-    <t>毛澤東</t>
+    <t>毛泽东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%81%A9%E4%BE%86</t>
   </si>
   <si>
-    <t>周恩來</t>
+    <t>周恩来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%A7%E5%B0%8F%E5%B9%B3</t>
   </si>
   <si>
-    <t>鄧小平</t>
+    <t>邓小平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%BD%AA</t>
@@ -251,19 +248,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%98%89%E8%AA%A0</t>
   </si>
   <si>
-    <t>李嘉誠</t>
+    <t>李嘉诚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%99%BB%E8%BC%9D</t>
   </si>
   <si>
-    <t>李登輝</t>
+    <t>李登辉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E6%8C%AF%E5%AF%A7</t>
   </si>
   <si>
-    <t>楊振寧</t>
+    <t>杨振宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%BB%BA%E6%B0%91</t>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E7%B6%AD%E6%9E%97</t>
   </si>
   <si>
-    <t>王維林</t>
+    <t>王维林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%84%E7%86%99%E4%BE%86</t>
   </si>
   <si>
-    <t>薄熙來</t>
+    <t>薄熙来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%A8%9C_(%E7%BD%91%E7%90%83%E8%BF%90%E5%8A%A8%E5%91%98)</t>
@@ -299,31 +296,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%B8%96%E9%81%94%E8%B3%B4%E5%96%87%E5%98%9B</t>
   </si>
   <si>
-    <t>第十四世達賴喇嘛</t>
+    <t>第十四世达赖喇嘛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B0%81%E9%9D%A2%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8_(1920%E5%B9%B4%E4%BB%A3)</t>
   </si>
   <si>
-    <t>時代封面人物列表 (1920年代)</t>
+    <t>时代封面人物列表 (1920年代)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B0%81%E9%9D%A2%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8_(1930%E5%B9%B4%E4%BB%A3)</t>
   </si>
   <si>
-    <t>時代封面人物列表 (1930年代)</t>
+    <t>时代封面人物列表 (1930年代)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B0%81%E9%9D%A2%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8_(1960%E5%B9%B4%E4%BB%A3)</t>
   </si>
   <si>
-    <t>時代封面人物列表 (1960年代)</t>
+    <t>时代封面人物列表 (1960年代)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B0%81%E9%9D%A2%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8_(1970%E5%B9%B4%E4%BB%A3)</t>
   </si>
   <si>
-    <t>時代封面人物列表 (1970年代)</t>
+    <t>时代封面人物列表 (1970年代)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%B0%81%E9%9D%A2%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8_(1990%E5%B9%B4%E4%BB%A3)</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B0%81%E9%9D%A2%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8_(2010%E5%B9%B4%E4%BB%A3)</t>
   </si>
   <si>
-    <t>時代封面人物列表 (2010年代)</t>
+    <t>时代封面人物列表 (2010年代)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A3%8E%E4%BA%91%E4%BA%BA%E7%89%A9</t>
@@ -353,13 +350,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>時代年度風雲人物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%858%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅8號</t>
+    <t>阿波罗8号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E4%BA%BA</t>
@@ -371,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E6%BD%AE</t>
   </si>
   <si>
-    <t>嬰兒潮</t>
+    <t>婴儿潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -383,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%B8%AD%E6%AD%A3</t>
   </si>
   <si>
-    <t>蔣中正</t>
+    <t>蒋中正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A4%A7%E4%B8%80</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
+    <t>个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83</t>
@@ -419,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9B%A0%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>愛因斯坦</t>
+    <t>爱因斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E7%99%BE%E5%A4%A7%E4%BA%BA%E7%89%A9</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>柏林戰役</t>
+    <t>柏林战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%8A%95</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E6%96%B0%E8%81%9E%E5%B1%80</t>
   </si>
   <si>
-    <t>行政院新聞局</t>
+    <t>行政院新闻局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%99%AF%E8%92%99</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BE%E7%99%BB%E4%B8%8A%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C%E7%BE%8E%E5%9C%8B%E7%89%88%E5%B0%81%E9%9D%A2%E7%9A%84%E4%B8%AD%E5%9C%8B%E4%BA%BA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>曾登上時代雜誌美國版封面的中國人列表</t>
+    <t>曾登上时代杂志美国版封面的中国人列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3100%E4%BA%BA%EF%BC%9A%E6%9C%AC%E4%B8%96%E7%BA%AA%E6%9C%80%E9%87%8D%E8%A6%81%E7%9A%84%E4%BA%BA%E7%89%A9</t>
@@ -599,37 +593,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C%E8%A9%95%E9%81%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>時代雜誌評選列表</t>
+    <t>时代杂志评选列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C%E5%B9%B4%E5%BA%A650%E5%80%8B%E6%9C%80%E4%BD%B3%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>時代雜誌年度50個最佳發明</t>
+    <t>时代杂志年度50个最佳发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%99%BD%E5%AE%AE%E7%B0%A1%E5%A0%B1%E5%AE%A4%E5%BA%A7%E6%AC%A1%E8%A1%A8</t>
   </si>
   <si>
-    <t>Template talk-白宮簡報室座次表</t>
+    <t>Template talk-白宫简报室座次表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%B8%83%E9%9B%B7%E8%BF%AA%E6%96%B0%E8%81%9E%E7%B0%A1%E5%A0%B1%E5%AE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·布雷迪新聞簡報室</t>
+    <t>詹姆斯·布雷迪新闻简报室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>NBC新聞</t>
+    <t>NBC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CBS_Radio_News</t>
@@ -707,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/CBS%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>CBS新聞</t>
+    <t>CBS新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E8%81%9E%E7%A4%BE</t>
   </si>
   <si>
-    <t>彭博新聞社</t>
+    <t>彭博新闻社</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_McClatchy_Company</t>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%92%B0%E7%90%83%E5%A0%B1</t>
   </si>
   <si>
-    <t>波士頓環球報</t>
+    <t>波士顿环球报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roll_Call</t>
@@ -779,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E5%8D%9A%E6%81%A9</t>
   </si>
   <si>
-    <t>視博恩</t>
+    <t>视博恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ABC%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>ABC新聞</t>
+    <t>ABC新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
@@ -815,19 +809,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>每日郵報</t>
+    <t>每日邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>英國廣播公司新聞</t>
+    <t>英国广播公司新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/One_America_News_Network</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E8%AB%96%E5%A3%87%E5%A0%B1</t>
   </si>
   <si>
-    <t>芝加哥論壇報</t>
+    <t>芝加哥论坛报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%8B%E9%9F%B3</t>
@@ -875,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>紐約每日新聞</t>
+    <t>纽约每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BuzzFeed</t>
@@ -887,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E9%87%8E%E7%8D%B8</t>
   </si>
   <si>
-    <t>每日野獸</t>
+    <t>每日野兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -899,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8A%E6%97%A5%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>今日美國</t>
+    <t>今日美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC_News_Radio</t>
@@ -923,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96%E7%B6%B2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>公共電視網 (美國)</t>
+    <t>公共电视网 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Westwood_One_(current)</t>
@@ -935,19 +929,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E8%A8%98%E8%80%85%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>白宮記者協會</t>
+    <t>白宫记者协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E9%9B%9C%E8%AA%8C</t>
@@ -2052,7 +2046,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
         <v>14</v>
@@ -2107,10 +2101,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>15</v>
@@ -2136,10 +2130,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -2165,10 +2159,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2194,10 +2188,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2223,10 +2217,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2252,10 +2246,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2281,10 +2275,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2310,10 +2304,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2339,10 +2333,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2368,10 +2362,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2397,10 +2391,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2426,10 +2420,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2455,10 +2449,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2484,10 +2478,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2513,10 +2507,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2542,10 +2536,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2571,10 +2565,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2600,10 +2594,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2629,10 +2623,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2658,10 +2652,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2687,10 +2681,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2716,10 +2710,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2745,10 +2739,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2774,10 +2768,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2803,10 +2797,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2832,10 +2826,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2861,10 +2855,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2890,10 +2884,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2919,10 +2913,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2948,10 +2942,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2977,10 +2971,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3006,10 +3000,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3035,10 +3029,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3064,10 +3058,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3093,10 +3087,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3122,10 +3116,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3151,10 +3145,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3180,10 +3174,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3209,10 +3203,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3238,10 +3232,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3267,10 +3261,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3296,10 +3290,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3325,10 +3319,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3354,10 +3348,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3383,10 +3377,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3412,10 +3406,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3441,10 +3435,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3470,10 +3464,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3499,10 +3493,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3528,10 +3522,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3557,10 +3551,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3586,10 +3580,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3615,10 +3609,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3644,10 +3638,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3673,10 +3667,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3702,10 +3696,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3731,10 +3725,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3760,10 +3754,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3789,10 +3783,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3818,10 +3812,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3847,10 +3841,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3876,10 +3870,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -3905,10 +3899,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3934,10 +3928,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3963,10 +3957,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3992,10 +3986,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4021,10 +4015,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4050,10 +4044,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4079,10 +4073,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4108,10 +4102,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4137,10 +4131,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4166,10 +4160,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4195,10 +4189,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>5</v>
@@ -4224,10 +4218,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4253,10 +4247,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4282,10 +4276,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4311,10 +4305,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4340,10 +4334,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4369,10 +4363,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4398,10 +4392,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4427,10 +4421,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4456,10 +4450,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4485,10 +4479,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4514,10 +4508,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4543,10 +4537,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4572,10 +4566,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4601,10 +4595,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4630,10 +4624,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4659,10 +4653,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4688,10 +4682,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4717,10 +4711,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4746,10 +4740,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4775,10 +4769,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4804,10 +4798,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4833,10 +4827,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4862,10 +4856,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4891,10 +4885,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4920,10 +4914,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4949,10 +4943,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4978,10 +4972,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5007,10 +5001,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5036,10 +5030,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5065,10 +5059,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5094,10 +5088,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5123,10 +5117,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5152,10 +5146,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5181,10 +5175,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5210,10 +5204,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5239,10 +5233,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5268,10 +5262,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5297,10 +5291,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5326,10 +5320,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5355,10 +5349,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5384,10 +5378,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5413,10 +5407,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5442,10 +5436,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5471,10 +5465,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5500,10 +5494,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5529,10 +5523,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5558,10 +5552,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5587,10 +5581,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5616,10 +5610,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5645,10 +5639,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5674,10 +5668,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5703,10 +5697,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5732,10 +5726,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5761,10 +5755,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5790,10 +5784,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5819,10 +5813,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5848,10 +5842,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5877,10 +5871,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -5906,10 +5900,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>309</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>313</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
